--- a/data/output/FV2304_FV2210/UTILMD/11172.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11172.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7054" uniqueCount="435">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="435">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1413,6 +1413,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U311" totalsRowShown="0">
+  <autoFilter ref="A1:U311"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1702,7 +1732,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16398,5 +16431,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11172.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11172.xlsx
@@ -2748,7 +2748,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5086,7 +5086,7 @@
         <v>416</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10556,7 +10556,7 @@
         <v>424</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10704,7 +10704,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11970,7 +11970,7 @@
         <v>427</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12178,7 +12178,7 @@
         <v>428</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12332,7 +12332,7 @@
         <v>428</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -12882,7 +12882,7 @@
         <v>429</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13240,7 +13240,7 @@
         <v>431</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13394,7 +13394,7 @@
         <v>431</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -15248,7 +15248,7 @@
         <v>433</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -15950,7 +15950,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -17384,7 +17384,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -17534,7 +17534,7 @@
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -17630,7 +17630,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -17776,7 +17776,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -18022,7 +18022,7 @@
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -18170,7 +18170,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N309" s="2"/>
